--- a/Airdrop/airdrop_list/itc_airdrop_total.xlsx
+++ b/Airdrop/airdrop_list/itc_airdrop_total.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuoapp/Documents/zhoyiyu/GithubAirdrop/Airdrop/airdrop_list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarivs/Google Drive/NodeJS/Airdrop/airdrop_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B420350B-C655-4740-9A18-3B30FF765685}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="27740" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="-31960" yWindow="800" windowWidth="27740" windowHeight="17560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,46 +25,937 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Enter your Telegram username (请输入您的电报用户名) (텔레그램 닉네임을 넣어주세요.)</t>
-  </si>
-  <si>
-    <t>Enter your Retweet Link (请输入您转推的链接)(리트윗 링크를 적어주세요.)</t>
-  </si>
-  <si>
-    <t>Enter your Ethereum address (ERC20)（请输入您erc-20的钱包地址)(ERC - 20 토큰이 지원되는 이더리움 지갑 주소를 적어주세요.)</t>
-  </si>
-  <si>
-    <t>@risorialtest</t>
-  </si>
-  <si>
-    <t>http://test.com</t>
-  </si>
-  <si>
-    <t>0x1111111112222333321231231231232321323212</t>
-  </si>
-  <si>
-    <t>@younes</t>
-  </si>
-  <si>
-    <t>https://twitter.com/IoT_Chain/status/959365112216743937</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t>0x3d816b62645db347a04e3b3ea7866672471b30b0</t>
+  </si>
+  <si>
+    <t>0x060bbae03EF52F1B47db247215Da0FB87FF4B2EB</t>
+  </si>
+  <si>
+    <t>0xc23C40f3fc00Be9c2A7e5424A71a8aB373F0C3db</t>
+  </si>
+  <si>
+    <t>0x677858d0Bd71A9300a19E436ae3b5AF6d1807cc1</t>
+  </si>
+  <si>
+    <t>0x245008516F8E782a29FC6F548BfF711E09872e84</t>
+  </si>
+  <si>
+    <t>0x8643b206E22310e85FAaAfFAEFE425DD9dB33e0A</t>
+  </si>
+  <si>
+    <t>0xe9EBAec295304eeCfFedF8De1Bb29852Ec86C89c</t>
+  </si>
+  <si>
+    <t>0x3518f0DCBB5228d974FD8Ac9b10AA90ffD6A60A0</t>
+  </si>
+  <si>
+    <t>0xbf7AE5c356CFF7e49B85Aa170619775a49661c8d</t>
+  </si>
+  <si>
+    <t>0x52aD8559Ce566c61f423cBaEf0a0484003B3abe0</t>
+  </si>
+  <si>
+    <t>0xaA226741e5b943c36bfE4dc2ae0C1F52b5290Bd4</t>
+  </si>
+  <si>
+    <t>0x32aad5031DbDfaEdEE4D709193a44FE636178012</t>
+  </si>
+  <si>
+    <t>0x302945350A792a51D46a65fF68Bd71b917419437</t>
+  </si>
+  <si>
+    <t>0x09C3d704C280a9fFBF5710ab2C327761A7ceDEbB</t>
+  </si>
+  <si>
+    <t>0x7A30850e8cABd67578A3797B7AD9436f2C3a0911</t>
+  </si>
+  <si>
+    <t>0x4d6F9f46709c42e3FABCE3FE13980AD5217645F6</t>
+  </si>
+  <si>
+    <t>0x5ffbc54fEc7a8DcFbE2f79041894a709fDA3c963</t>
+  </si>
+  <si>
+    <t>0x5f52e8958e9ad59ff4e351578100c58259cad146</t>
+  </si>
+  <si>
+    <t>0x9bf872B64D619c90e4FAe00bD977434677d1FC98</t>
+  </si>
+  <si>
+    <t>0x3ce69798d0692df0ba81a3941b70a7a0cbc5deb8</t>
+  </si>
+  <si>
+    <t>0x2C2fF170CFC66d295c3039f04CDa5cc995e39aF9</t>
+  </si>
+  <si>
+    <t>0x79b28a4f89397dc6f0fd7f8c82871de23232d95a</t>
+  </si>
+  <si>
+    <t>0x0b858d9b7217dec0dc13ebc4c54657e44fb2e234</t>
+  </si>
+  <si>
+    <t>0x33e4da32596277e96b8a9c13b92d0b06773bd7ed</t>
+  </si>
+  <si>
+    <t>0xa1582b7bb43bd5c3a72e470a26682506d1ab4f41</t>
+  </si>
+  <si>
+    <t>0xa4Cceb8D0D75aAf12BDA9b3cC0Ec53de56a889e8</t>
+  </si>
+  <si>
+    <t>0xC39dDD9824201c17b813CFCce901ef236d1628fe</t>
+  </si>
+  <si>
+    <t>0x1841f62f7b151aa5fb6232b9d582363f620f37ca</t>
+  </si>
+  <si>
+    <t>0xd6a20edd94eb8bdbf8dcdd56f02654abb8c27082</t>
+  </si>
+  <si>
+    <t>0x84236a567ecfa07cac1433165ff11b80130b5d6b</t>
+  </si>
+  <si>
+    <t>0x793fa0b637019dd0f019e5daf12155af8404b8cb</t>
+  </si>
+  <si>
+    <t>0x19AB271d16CD066A708eeC44145abB778C2B1820</t>
+  </si>
+  <si>
+    <t>0x8181aBb4B0E7105BE759EB20886d5E85e3AE4005</t>
+  </si>
+  <si>
+    <t>0xB621c2e34308dAc17e2D83B2a4248cd709F740E3</t>
+  </si>
+  <si>
+    <t>0xbCA692C5D883dc29e72a4421028F6121Faa7650E</t>
+  </si>
+  <si>
+    <t>0xFc9Be572b0c5f2cAd185a97F3e72fdDb99375319</t>
+  </si>
+  <si>
+    <t>0x3d1E9fe8D7db7259111DD17cFDA27D592Bce19AD</t>
+  </si>
+  <si>
+    <t>0xe5bE70D3A4CF1059C71CB54F91c79E447460A35B</t>
+  </si>
+  <si>
+    <t>0xa266F88CfA0694A0776243Cf1ec73c014AE44cdd</t>
+  </si>
+  <si>
+    <t>0x78387fB6801d73eA73f6F30Ce148D63787026C2b</t>
+  </si>
+  <si>
+    <t>0x802E358D273Dd6780AF01b016CE000B19C7842a8</t>
+  </si>
+  <si>
+    <t>0xaf67670bf67adf226317bf21ae288848288763d8</t>
+  </si>
+  <si>
+    <t>0x1a52ef12ca2b4de6e26252344ca8f73313cbda5e</t>
+  </si>
+  <si>
+    <t>0x79420c69a6d49bfb93ed257d6b2dba6105232583</t>
+  </si>
+  <si>
+    <t>0x93e34b3f849eeb694488bac350c4808b807fc3d9</t>
+  </si>
+  <si>
+    <t>0x0ca67451cb568a588eddd90b3aa1de2f765541a9</t>
+  </si>
+  <si>
+    <t>0x6c7ac9b9d5abf5175db8d9fa1313548da86bdacb</t>
+  </si>
+  <si>
+    <t>0xc0b2e6266978e26693ccf9e48d0f4977b09618a6</t>
+  </si>
+  <si>
+    <t>0xa7334c65d431b666423d738f0eca9c84fb224786</t>
+  </si>
+  <si>
+    <t>0x116028aa7e21d345954978397dd6c372e32774b7</t>
+  </si>
+  <si>
+    <t>0xb7f819b983e0cbb0316786d7fba12e3b1e58da5f</t>
+  </si>
+  <si>
+    <t>0xbc1d7c41d25e9cb4dc5466515666a0cf89d73bb9</t>
+  </si>
+  <si>
+    <t>0x189fc26c2ccc1e7088b9216a480472a0f3f598df</t>
+  </si>
+  <si>
+    <t>0x2b5634c42055806a59e9107ed44d43c426e58258</t>
+  </si>
+  <si>
+    <t>0xb3aaaae47070264f3595c5032ee94b620a583a39</t>
+  </si>
+  <si>
+    <t>0x980BfeD340b5cb10e84CDEc3c653f630F430E9AC</t>
+  </si>
+  <si>
+    <t>0xe89943ec20d856f064a87349a00ef6ab00aed042</t>
+  </si>
+  <si>
+    <t>0xcCA7efF9dF690FbBdF4dC9E9dA944dC88DAF6C12</t>
+  </si>
+  <si>
+    <t>0x1490a77994bd23395fcf098dcd60a7ef2fe82613</t>
+  </si>
+  <si>
+    <t>0x80cfd274937d40c5e3d0e910a81d3330f3c10898</t>
+  </si>
+  <si>
+    <t>0xBa5BFBBe20047C91cD91B772e421F5cBcdf62D8d</t>
+  </si>
+  <si>
+    <t>0x00a693f3169789f69246452c78c3c20ecdb37c77</t>
+  </si>
+  <si>
+    <t>0x79a486b64c69983bd2d29a20ecaf37fe9949a256</t>
+  </si>
+  <si>
+    <t>0x33a64dcdfa041befebc9161a3e0c6180cd94fa89</t>
+  </si>
+  <si>
+    <t>0xe942a8d71a82169Da996470EDa642A007d3b2500</t>
+  </si>
+  <si>
+    <t>0x0b53011ebb213b7CFF6272d3039e36A891329ea8</t>
+  </si>
+  <si>
+    <t>0xa9c7564204b6a9fd71a9f070dbde6e6ef92e0fb2</t>
+  </si>
+  <si>
+    <t>0x59faf9cb2c18fd1e376255a0f8aa03ad3c3ec796</t>
+  </si>
+  <si>
+    <t>0xc8ac76785c6b413753f6bfedd9953785876b8a5c</t>
+  </si>
+  <si>
+    <t>0xCA290Cd695aA5E1E31f08Ac6EA6d0512024A11B6</t>
+  </si>
+  <si>
+    <t>0xec04c4754452c0b76a5d2f2c30681066a96a7651</t>
+  </si>
+  <si>
+    <t>0xAd2457A7A0a72B845C3A35aA993bE878B5aA0e57</t>
+  </si>
+  <si>
+    <t>0xfe7453bafd7139f78cd8788fd27069921cc14603</t>
+  </si>
+  <si>
+    <t>0xfb8b68b978ca5bf2220431bdf294b26b2868883f</t>
+  </si>
+  <si>
+    <t>0xf9208661ffe1607d96cf386b84b2be621620097c</t>
+  </si>
+  <si>
+    <t>0x549a1117c2aa405091b9e3be17776fb3532ddf42</t>
+  </si>
+  <si>
+    <t>0x6f7208634b5e2f3ddb6dbbc3e7e2ca1fa4c3c94d</t>
+  </si>
+  <si>
+    <t>0xa070082b816f12fdce4886ae88ee9b6094180fcd</t>
+  </si>
+  <si>
+    <t>0xbd4282e6b2bf8eef232ed211e53b54e560d71a2b</t>
+  </si>
+  <si>
+    <t>0xc82462739076a22e4213d1b01d233a18b2fe66e0</t>
+  </si>
+  <si>
+    <t>0x67a259ec562d4a2639fc449a9374e4709bb625f0</t>
+  </si>
+  <si>
+    <t>0x912d92502de8ec2b4057f7f3b39bb67b0418192b</t>
+  </si>
+  <si>
+    <t>0x6368092cd80b01d211ed1abfcc7e180254107bdb</t>
+  </si>
+  <si>
+    <t>0xd3dead0690e4df17e4de54be642ca967ccf082b8</t>
+  </si>
+  <si>
+    <t>0xc34ffa878a25329f7c30bba3b437273add3c481b</t>
+  </si>
+  <si>
+    <t>0x82f45b68d11762499d2542c30a7ad3a05074a9ad</t>
+  </si>
+  <si>
+    <t>0xcf191d01308e3Ac82500E6Dd08B08F1cC634Cc1E</t>
+  </si>
+  <si>
+    <t>0x1e21fcdedbc3cc780ec0c50e92afcefc94245843</t>
+  </si>
+  <si>
+    <t>0xcafc349b1fb892287e1d3345090d615652bbed10</t>
+  </si>
+  <si>
+    <t>0x307b001A60045e6e68733db6193Da8D352faA52D</t>
+  </si>
+  <si>
+    <t>0xfbb1b73c4f0bda4f67dca266ce6ef42f520fbb98</t>
+  </si>
+  <si>
+    <t>0xC16Fc23ffA79525AE6ceD6b0dBAba133dd110bd8</t>
+  </si>
+  <si>
+    <t>0xb4Ac655577656e89c4475b779110cca9188C7cEa</t>
+  </si>
+  <si>
+    <t>0xF3fc5D6C2D01F2139299b45ea871E481dffb6100</t>
+  </si>
+  <si>
+    <t>0x5F200d6077E1D4a3080b116A9f8CDa59007258d5</t>
+  </si>
+  <si>
+    <t>0xE5aC8600cB02145C3b99c6f70B79ee107184dE2e</t>
+  </si>
+  <si>
+    <t>0x8D057C5884E1dFa91a117d3b1a50D87716FD68bD</t>
+  </si>
+  <si>
+    <t>0x6130e2584d795AB8EC26790afb1B88cB8AB3Cf2D</t>
+  </si>
+  <si>
+    <t>0x930D44DEc9310601F5b4849b14d27A2ef447591F</t>
+  </si>
+  <si>
+    <t>0xfff4b5f3ea52c7c582ab16ba28afa42aec47c165</t>
+  </si>
+  <si>
+    <t>0x279b4aeEaDef792a93b8cCC80087F220c7bFD433</t>
+  </si>
+  <si>
+    <t>0x17d0e82ebdef0516e196d71a1d5f1b7acadafba3</t>
+  </si>
+  <si>
+    <t>0xdaf10e9794b83c02bc5484200e9b97b66f19fa58</t>
+  </si>
+  <si>
+    <t>0x71d271f8b14adef568f8f28f1587ce7271ac4ca5</t>
+  </si>
+  <si>
+    <t>0xBb8E988BDd4169d98154EDCCD82edf23Af83dE45</t>
+  </si>
+  <si>
+    <t>0x8F94289cDDcFfb9868A5746B4661E17246201F3f</t>
+  </si>
+  <si>
+    <t>0xb09D691fF796559cdF5f2F209CfA50321169cbc5</t>
+  </si>
+  <si>
+    <t>0xecb58c1ad50a81521702d1b1e7c931e20b5ababf</t>
+  </si>
+  <si>
+    <t>0x4561bc49e18bc9d7a94abce0ece747024982d636</t>
+  </si>
+  <si>
+    <t>0x90f15987b98770a70c40f6495981d741a8d511a7</t>
+  </si>
+  <si>
+    <t>0x7D20Bc331BF0C2BEb857777F6f5f36C51855b918</t>
+  </si>
+  <si>
+    <t>0xf27b5cf6d40531556f6e6eeb445a8c88c8f9815f</t>
+  </si>
+  <si>
+    <t>0x7eb19624256acb1Dd6c71B29c85a8c448D17C875</t>
+  </si>
+  <si>
+    <t>0x507b12865ea012ffd8a77e2a734ce163977fca33</t>
+  </si>
+  <si>
+    <t>0xEE4763122b262A39505Ac4fEaE04593F018329FF</t>
+  </si>
+  <si>
+    <t>0x9c89814bc229ef3188add441ef9d2673a621d7be</t>
+  </si>
+  <si>
+    <t>0x5119bc4aab16c7ce645d15a7e0031c1c6e60d361</t>
+  </si>
+  <si>
+    <t>0x4A25810bc2c253ca2F50AceEdf524b8e87971004</t>
+  </si>
+  <si>
+    <t>0x709F3Fab61d1bC19Fbef28d0D397FE314EAfd0E5</t>
+  </si>
+  <si>
+    <t>0xC52EcbBA2e1B46Da67CF694276ac3e0cAd53fa47</t>
+  </si>
+  <si>
+    <t>0x00DfD5dEedc928190EC5b02da930441583c1bA2B</t>
+  </si>
+  <si>
+    <t>0xfc569bdc1aafa73723df2c19ccc3a9c71c05a73e</t>
+  </si>
+  <si>
+    <t>0x093aD3154604517b296f929DF71FB3b2bdD106e2</t>
+  </si>
+  <si>
+    <t>0x4f712C350d6540605F7B537aDB51a5066e8356d0</t>
+  </si>
+  <si>
+    <t>0xE2a11B1C1EA03e7E364eDf25fa1433D90787055B</t>
+  </si>
+  <si>
+    <t>0xB51453B46cdA0c7E0477e03F54704E439Df7a630</t>
+  </si>
+  <si>
+    <t>0x33209cdF09c62693752a4C4C252D5a27A33827D3</t>
+  </si>
+  <si>
+    <t>0x0416e5eff9021ace436376f41282600313654623</t>
+  </si>
+  <si>
+    <t>0xB506c89E9E0AbFE63E12a097A3DA3636115905C8</t>
+  </si>
+  <si>
+    <t>0x9061316d6B7E8aCa16b8aD83B9085cd6E0314A31</t>
+  </si>
+  <si>
+    <t>0x4B0CE6Bb4FFc7Abd3bb950e5a0c88122Fc2BdEf9</t>
+  </si>
+  <si>
+    <t>0xFce28f6fFaA23A1Bb0a9f6787A692d98eCf7C91C</t>
+  </si>
+  <si>
+    <t>0x030FC4EdD671c8D2401b4093e5Cd2c046eE94CF9</t>
+  </si>
+  <si>
+    <t>0x987C0994f6f981B63A214Dcc0e1d402eff922F21</t>
+  </si>
+  <si>
+    <t>0x49ce82d1Bf26b22975F7Ca8D80D1f2Bc8a209e39</t>
+  </si>
+  <si>
+    <t>0x347072Fcd71A9e251d18a292d9bbc8bC3149cD8A</t>
+  </si>
+  <si>
+    <t>0x530359e4B6f0878a5AfeADB0A9990bd0423d14aE</t>
+  </si>
+  <si>
+    <t>0x9d313575F7B237d69B27103511Fc28F86E298B0C</t>
+  </si>
+  <si>
+    <t>0x4550a64dA3F259B506cc65CCC8bCe8D779B960e6</t>
+  </si>
+  <si>
+    <t>0x9D81E9d9D5bcd8F37c3512ad469C7FF2590834A4</t>
+  </si>
+  <si>
+    <t>0x1eb5856241191e675bce7d08fe51474879bf7c68</t>
+  </si>
+  <si>
+    <t>0x275F764a58a1F96E55057c7dDE88b1b0a2892480</t>
+  </si>
+  <si>
+    <t>0x9962f782c008aa485b7bef2a96851b888e6b736d</t>
+  </si>
+  <si>
+    <t>0x7CB8b8B56BfB6D6c05d237480Bf3504463deCa00</t>
+  </si>
+  <si>
+    <t>0xaE0EaEd90Ba6B535846333Ad0B0BE5B89a937ad3</t>
+  </si>
+  <si>
+    <t>0x0eE465aB704714c6944D4e0e62f2a8d8D08C425d</t>
+  </si>
+  <si>
+    <t>0x7E3499239B23f30b31ae2F0F26B0e9929561e517</t>
+  </si>
+  <si>
+    <t>0x58B0C7d863f3782f94c675cE6C689baEFBF9B88d</t>
+  </si>
+  <si>
+    <t>0x8e3452963C07Aa4EA67ad6Cc47C5265B1b82Da11</t>
+  </si>
+  <si>
+    <t>0xD3CBa618c71546AC205453fA736b864a61a3c0C3</t>
+  </si>
+  <si>
+    <t>0x631818Db7C1387F2AAAd6C126072806d0CB703CE</t>
+  </si>
+  <si>
+    <t>0x25cfaa868033d02cc26edec57d2b3a65ef1a803e</t>
+  </si>
+  <si>
+    <t>0x4fEa1BfDFe0e25268097BE4D6CBE6c554A37C307</t>
+  </si>
+  <si>
+    <t>0x5D2b84F67D88d094902f2992A97f9653dD3B3c4F</t>
+  </si>
+  <si>
+    <t>0x09F362339eC850ae23e49283804901C3D306D34A</t>
+  </si>
+  <si>
+    <t>0x7DFE6f9Ce72478078a8632a0077A6D0a9f2d2549</t>
+  </si>
+  <si>
+    <t>0xcDC6d2249B4E65fd47EE466E0b2bABB2573b8B02</t>
+  </si>
+  <si>
+    <t>0x497A272Fa2487e8f7511FDa38Aa52da6dBF31Bc0</t>
+  </si>
+  <si>
+    <t>0x1940Be3DbF01F1FFdB079c3DB838BAf97637E204</t>
+  </si>
+  <si>
+    <t>0xD3166160e9427D9DFbBC4040574F373041b2D3Dd</t>
+  </si>
+  <si>
+    <t>0x4DbFf696b434c742547c92507b420d86E8236A38</t>
+  </si>
+  <si>
+    <t>0x4d75CE1Ddc28d7a14aC1053190e8C25C0DEb5ffA</t>
+  </si>
+  <si>
+    <t>0x26d5794e5c1d2D0FcD073CC9FB2b41307d74b440</t>
+  </si>
+  <si>
+    <t>0xb04d711669F1fff063Ca016E7Ee1E10B6779E1be</t>
+  </si>
+  <si>
+    <t>0x98f37ccE8A9bcf19a1d10534eC679C97BD457968</t>
+  </si>
+  <si>
+    <t>0xd55f7fc4b34D3D386C56E9b384aA6CD349C7F0fe</t>
+  </si>
+  <si>
+    <t>0xa425C898e907f0181AF5C0F8188a64d6C5cd0EF7</t>
+  </si>
+  <si>
+    <t>0xcFd82c9F4f43e06Fe487538BE7823816708C9582</t>
+  </si>
+  <si>
+    <t>0x44286f7950083E66Ea42A18ca16F58F7bfcb3C7F</t>
+  </si>
+  <si>
+    <t>0x68F3DdbAA6cB602213C2C9CE81B5A19c6DBAfEf8</t>
+  </si>
+  <si>
+    <t>0xbb4777e2fdfbeb6a005e401d4fcb7c0f134df9ea</t>
+  </si>
+  <si>
+    <t>0x4Fc59E97c3F53646f23A33CEA13260C307a7AE45</t>
+  </si>
+  <si>
+    <t>0x38143191349eb0A4b42BB1385BfbB39722c0Fa79</t>
+  </si>
+  <si>
+    <t>0x83d323491906A31b6189b66191aC26a7C54e51DD</t>
+  </si>
+  <si>
+    <t>0x9A2Ddf481E8E118dbB350d3e1f815b588e4a13B6</t>
+  </si>
+  <si>
+    <t>0x8D92a35bb73b62197a914B170af0028423ec2b8f</t>
+  </si>
+  <si>
+    <t>0xb2446638cDB8da2B09E927C3Bf789866b374eA5F</t>
+  </si>
+  <si>
+    <t>0x1ce5f9D9b3A7a4BEA74c9635Bc6d51C3311D92ec</t>
+  </si>
+  <si>
+    <t>0x22b17bBDA13f7a5313a723Fd79E0D393aE0d5830</t>
+  </si>
+  <si>
+    <t>0xAB5f7571c7098aD354556b7C4d3421D4034711e2</t>
+  </si>
+  <si>
+    <t>0xEd4f522a21f9257c77D8d2a69fD725dAC517d234</t>
+  </si>
+  <si>
+    <t>0x2E2247b2E0D19B7Edd33583B6F8462dc55522e0B</t>
+  </si>
+  <si>
+    <t>0x22dE5d789EBba80E6376Bbf37428855Bb9c7996B</t>
+  </si>
+  <si>
+    <t>0x8a266aA4B9584740c6844c24E3D6174934f3D14c</t>
+  </si>
+  <si>
+    <t>0xaea2b1b66170b7e4018bd84e0f741fe0fd4224a4</t>
+  </si>
+  <si>
+    <t>0x2Be49d9e127a7EF738F63e98B4BEDbc910F68d08</t>
+  </si>
+  <si>
+    <t>0x5fe36b93aCA9F213a7285E64b2dFEb17863a71dE</t>
+  </si>
+  <si>
+    <t>0x54F914231D5b9DF3F0d720B46Bc0cbA535edD2d1</t>
+  </si>
+  <si>
+    <t>0x53c78e70cB8649cd59950d6F3073127Cc4e9a50A</t>
+  </si>
+  <si>
+    <t>0x87dC0Ec0CAA751d771f5e4a4489129c8869A6B74</t>
+  </si>
+  <si>
+    <t>0x965022C691B699D3c5627208745835682152445b</t>
+  </si>
+  <si>
+    <t>0xc096C2e3c14175Bf2014697D3c2a2CF7226d87c4</t>
+  </si>
+  <si>
+    <t>0x7EC4f0E798f70fb64C48A990407c9Af1053F3A3B</t>
+  </si>
+  <si>
+    <t>0x725a66882b2c9deb8756e735acfa7480254c20d0</t>
+  </si>
+  <si>
+    <t>0x4449475AD37514D5332486F8B7996F8A2EeD64aE</t>
+  </si>
+  <si>
+    <t>0xDDEab17aEb3A6d36ceAA7e9D900cD8a3b7c05FA2</t>
+  </si>
+  <si>
+    <t>0x0E2d99EF2E3935ed6E1275E224EAa9Cd172c800C</t>
+  </si>
+  <si>
+    <t>0xEd6A13fDCe8da5eFB9Cfe45f652D9eD092B4B3e4</t>
+  </si>
+  <si>
+    <t>0xDC7eF00A7f192cA2AEB2E2ba1854505CE979e5F4</t>
+  </si>
+  <si>
+    <t>0x4DE8928D95384129D968E249f0F25609cEECb24D</t>
+  </si>
+  <si>
+    <t>0x1Bff1a9003194a270c744A29f846a0F74d45FCC4</t>
+  </si>
+  <si>
+    <t>0xBe6165C8f02FCad8DC679F5Ba631032e0A0A047D</t>
+  </si>
+  <si>
+    <t>0x6AD6ECF24B5C558Ff9680EaE992709fc1c6D125B</t>
+  </si>
+  <si>
+    <t>0xe9841FD6d2FB4e4B2788634444c35a9bfF1EB453</t>
+  </si>
+  <si>
+    <t>0x0dCacb17C288Da4Ed3Bbba1AA69C50Ab258158e7</t>
+  </si>
+  <si>
+    <t>0xea4589D7b1b4643Ec573AFDfd9d1cD483084aAF8</t>
+  </si>
+  <si>
+    <t>0x81D57766Ec7BE1ABf9bF6955E6B5CfF92D4EdeDc</t>
+  </si>
+  <si>
+    <t>0x80EFc012896FFa4f46733d2Eb6344Ffd453d30d4</t>
+  </si>
+  <si>
+    <t>0xB217D0fD44305801C1f81f8Ccd8db1EbD9c8Bd53</t>
+  </si>
+  <si>
+    <t>0x9a7D1b2e2182eeE734bc266F7886Ef7D3B699Df8</t>
+  </si>
+  <si>
+    <t>0xd58481e8d276a8d66efc2c34569d8bd0ddb05e6c</t>
+  </si>
+  <si>
+    <t>0xDCF2EEc715405F93ec6d314bcb300D6222339dcF</t>
+  </si>
+  <si>
+    <t>0xEB7C8Dc76348c02b0a19b22418BA930daccF887f</t>
+  </si>
+  <si>
+    <t>0xC70b7D8CB79f48B1e351a7270CE88eca3725E3c0</t>
+  </si>
+  <si>
+    <t>0xC178380F3e4720971F44Ac38A2688e168aD8fdf9</t>
+  </si>
+  <si>
+    <t>0x1106F3D2676171DCb69641000877e24f3c1de3c0</t>
+  </si>
+  <si>
+    <t>0x64843a7Fb31DA08424d1eEb6cB500176bF9540E6</t>
+  </si>
+  <si>
+    <t>0xE1309B66a268290f56921D3bB1F47D6F59F6d996</t>
+  </si>
+  <si>
+    <t>0x16e954F83bDf53E0c25096904f4510F0F85E4ff2</t>
+  </si>
+  <si>
+    <t>0x6D178b532d64546230Dce1D012A2dA8b8AC6f6C6</t>
+  </si>
+  <si>
+    <t>0x3bbBB59D4202FBD8f267c1294E19Eb35CdB3e35B</t>
+  </si>
+  <si>
+    <t>0x50b65367c80bc719bcad1cbd9db62134c40db111</t>
+  </si>
+  <si>
+    <t>0x633De3A421f08A8B9769E1516500D3c8cdf6565C</t>
+  </si>
+  <si>
+    <t>0x1368b362a2e7bdC33Bc77196bf66ff8366EA26d5</t>
+  </si>
+  <si>
+    <t>0x4936bBAD9AD302A006744a2be5F90FD0212D030c</t>
+  </si>
+  <si>
+    <t>0xbcBd6A61cc1553Ca9bd58fd6d2d10A1B8d0170EF</t>
+  </si>
+  <si>
+    <t>0x13cE6467660C7176e4c6597a9200cc12a51753C5</t>
+  </si>
+  <si>
+    <t>0x8171BCa46AE9e47B66eAfE9fBa2c256036bF1837</t>
+  </si>
+  <si>
+    <t>0x46272887ad2ba05840601d8ffc469380a5dad823</t>
+  </si>
+  <si>
+    <t>0x7414f0837a3b3824C52bf4E0125234BE7778D67b</t>
+  </si>
+  <si>
+    <t>0x7F4DdA9c3EbFF8C837C79E0F343F80DA379893D5</t>
+  </si>
+  <si>
+    <t>0xdc70C34A2aacb789A5304ac87B4fCF53969FfA9c</t>
+  </si>
+  <si>
+    <t>0x69aae7a2969d5ef1a6521ed2f2cc68b9d16360b3</t>
+  </si>
+  <si>
+    <t>0x6f251dc4258afc557151e50005f0ccb36d18596b</t>
+  </si>
+  <si>
+    <t>0xc9067445962b2f613e5a300386f7c4628f604577</t>
+  </si>
+  <si>
+    <t>0x70fc2d4797081C90723C580530dB3cE7a853bDA0</t>
+  </si>
+  <si>
+    <t>0x67177c553FbFbCFCB044f571Ce398F73267fD753</t>
+  </si>
+  <si>
+    <t>0xF4Af9aa009b35bE50A7A8fbC1E14C8608cDfdEB6</t>
+  </si>
+  <si>
+    <t>0x52d5b9e623fdb787118b2f4f510241ada20e5305</t>
+  </si>
+  <si>
+    <t>0x98f2d0c0466e4859c7aA6FB81386338767Fd86Bc</t>
+  </si>
+  <si>
+    <t>0xF71FB6ad44DeEdBFd8640855cf00AE9836eE0B7E</t>
+  </si>
+  <si>
+    <t>0x8183235aFF145c25360669520286A596F052fce7</t>
+  </si>
+  <si>
+    <t>0xac6c0c72981E2ed0c755441De7E1dA7e06DeaD28</t>
+  </si>
+  <si>
+    <t>0xc8a634364c0bC5D53C7498e165C3E7Ef2a2825E0</t>
+  </si>
+  <si>
+    <t>0x2b8d810aa3E420C978D31EACd0229067cF292b1d</t>
+  </si>
+  <si>
+    <t>0x3f6df5763ef890a0bf4a930e6cf640989b8367b7</t>
+  </si>
+  <si>
+    <t>0xb184c5719bfdc19e3b7993bfcac6a29c769fbb9f</t>
+  </si>
+  <si>
+    <t>0x698457c233574c3e359f7b351cfaea573b40f284</t>
+  </si>
+  <si>
+    <t>0xb70f31519f2b978838f8731c008f98de24b20337</t>
+  </si>
+  <si>
+    <t>0x466717c1102a0d5234d77183a838ecc05c5e4001</t>
+  </si>
+  <si>
+    <t>0x9c5dce61b86442c87ff2818c8538422fadd7d788</t>
+  </si>
+  <si>
+    <t>0x34E25f6F22176b297Fbb282f3f767049B96c1e20</t>
+  </si>
+  <si>
+    <t>0x4633b60611c9a8712dcADd6f8EA73502ae33B6BF</t>
+  </si>
+  <si>
+    <t>0xe011d0A6e4ba3EAc470a1342978298Dc013941c6</t>
+  </si>
+  <si>
+    <t>0x43AEe72b84E70e8a660425BbCF162d4F8b0D0880</t>
+  </si>
+  <si>
+    <t>0x1E9Cac32Bc10fB2c9D0e6aDb06f1f98bfe6b48cC</t>
+  </si>
+  <si>
+    <t>0x48cb0d8e6fa2cD65aA38FE8636b3B60c4536a4bf</t>
+  </si>
+  <si>
+    <t>0xE4b9214c58101924E8A647a6C058203fE8a5BdF5</t>
+  </si>
+  <si>
+    <t>0xcd2816934955c96e498951a888f27cf0b1eac04f</t>
+  </si>
+  <si>
+    <t>0x265b48c768aB3192dC7d836e3380Fe65972Ce91F</t>
+  </si>
+  <si>
+    <t>0x612d0de42591e9d64fc479d39324741eeaa047c5</t>
+  </si>
+  <si>
+    <t>0x341FDe9DDaf52C2B4E91308a9D9F084393f7274A</t>
+  </si>
+  <si>
+    <t>0xE4D4472402A210397ECfC24B91E9a3B07c8c2694</t>
+  </si>
+  <si>
+    <t>0x0f9c8e8D9dC2269C07a56Df5d85E80f92405F95f</t>
+  </si>
+  <si>
+    <t>0x840d627fc78e627c26dd44508b646a1e7284214c</t>
+  </si>
+  <si>
+    <t>0x6f4d027a2335866e4bf7979e7a3e5bf75495906e</t>
+  </si>
+  <si>
+    <t>0xfD1B8A8C46beb637345D71D4EaAa9a976545b0b8</t>
+  </si>
+  <si>
+    <t>0x48cB83cA304A049f6192873E7782Fe418a167f3f</t>
+  </si>
+  <si>
+    <t>0xD858b96c348c780555EC65D8b2EbfdafdeD63ba1</t>
+  </si>
+  <si>
+    <t>0x6C45E18AE5641324df6217a018Fd8Ddd31d7874f</t>
+  </si>
+  <si>
+    <t>0xabe31a0da1b39b3c334a4db9b69a71c8dfa46103</t>
+  </si>
+  <si>
+    <t>0xB16719bc309CBEDDD638dc01BbF22dAe9BE38d2d</t>
+  </si>
+  <si>
+    <t>0x1609B780f555dfBFb8265C584c71c3F1d91d8c5c</t>
+  </si>
+  <si>
+    <t>0xBB200598a4cb5CcbA273ef2d50C48DB360B38b1E</t>
+  </si>
+  <si>
+    <t>0xd815741f68b27c4bf0754f5e84f4d76473701a16</t>
+  </si>
+  <si>
+    <t>0x0119d58eefbd0d67ccb117b04b9a9e19eda029d1</t>
+  </si>
+  <si>
+    <t>0x26685255412e603506926AcA4D22329659B0081e</t>
+  </si>
+  <si>
+    <t>0xade8a2CEA1ECAA5238a43e2cAc8fC7B0251A0040</t>
+  </si>
+  <si>
+    <t>0xf627d870c61936930c5083abbdA39cDA983232Fb</t>
+  </si>
+  <si>
+    <t>0x816175af9483f78CB35EF9139fE6a7e89F27D888</t>
+  </si>
+  <si>
+    <t>0xaFA3fF39B3a154E47C7d2F60c1F7D5174030ac9c</t>
+  </si>
+  <si>
+    <t>0xa0d90553c763e1a7be465230be543cd67f68785b</t>
+  </si>
+  <si>
+    <t>0xDbC1fE2B4538bb7b05afDf74FbeDD885E7a911fE</t>
+  </si>
+  <si>
+    <t>0x8db288da97b90422543fe6ac545bb912c2636280</t>
+  </si>
+  <si>
+    <t>0x1883155B845ffFE167D316814087874Fd9e1CC54</t>
+  </si>
+  <si>
+    <t>0xD1b68ef1B6BE8ceA7d737191ef3A086e97223Ad9</t>
+  </si>
+  <si>
+    <t>0x176dc357ea21c1d6b21719d29872ca14c23df009</t>
+  </si>
+  <si>
+    <t>0xdfaadf1abb0b6076ec0e817d90d424fcbde3c6c7</t>
+  </si>
+  <si>
+    <t>0xf0f2336e9f4C21FbC1BbC188A2775B1b93Eb67C0</t>
+  </si>
+  <si>
+    <t>0x5677Bd8c6430076fE8A0Aa00e8830ee4dB10800D</t>
+  </si>
+  <si>
+    <t>0x1dFFEb1E1933bdf05F74D0ad03B3a417B682824D</t>
+  </si>
+  <si>
+    <t>0xdf7b2d11b1fe758e1f2fa68c3ede59d15252f296</t>
+  </si>
+  <si>
+    <t>0x92386EF8f8CA358721714e1c6Ef492bbCdb389BC</t>
+  </si>
+  <si>
+    <t>0x7EDbD239CcD8F778618ABF7a59D7D460BEdf8A84</t>
+  </si>
+  <si>
+    <t>0x46C0e60D88b62276311C3A30047D1C88A231Fbaa</t>
+  </si>
+  <si>
+    <t>0xA308CD77844eca8277b18a79Df2bE81125CFF3dA</t>
+  </si>
+  <si>
+    <t>0x117761B69831D5eD10fB97F2aF64F05C8eFB6027</t>
+  </si>
+  <si>
+    <t>0xCFD9E623862D56b25dFBA6cAE2ebCD88669aE6AE</t>
+  </si>
+  <si>
+    <t>0x412d5B6b5ECa19c2c69b6D2eC6e87b89527352C9</t>
+  </si>
+  <si>
+    <t>0x7e6a9e66ce9d56388782313f4b2fe6dd2407db9c</t>
+  </si>
+  <si>
+    <t>0x81DB248af4c049E441b692c8554759442bA4908e</t>
+  </si>
+  <si>
+    <t>0xc0C13bf212009f634181dBCD2835093202Bfe073</t>
+  </si>
+  <si>
+    <t>0xc9c2E6C0d12F7d81F09c5a726B20C9972bf5BE25</t>
+  </si>
+  <si>
+    <t>0x18F91Db0798C1aaA7b098583f45d2Eaa4a2e5917</t>
+  </si>
+  <si>
+    <t>0x2455000371B22FFcb86C5965835AeFcD8a021d5B</t>
+  </si>
+  <si>
+    <t>0xeb25e3cf669af72d367f931e3e3b9eeb4e12f9a6</t>
+  </si>
+  <si>
+    <t>0xc6934E0Cc0e6c97F7Fadb37A6428C84CF8dfA3BD</t>
+  </si>
+  <si>
+    <t>0xe5bd04BD11d16E91ee86ef2820Be2eb1Aaf6559c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -72,21 +964,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,14 +992,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -126,6 +1007,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -393,68 +1277,2484 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="D308" sqref="D308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="98.6640625" customWidth="1"/>
+    <col min="1" max="1" width="98.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>43132.893469999995</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>43133.096335428243</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A199" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A200" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A201" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A202" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A203" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A204" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A205" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A206" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A207" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A208" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A209" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A210" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A211" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A212" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A213" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A214" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A215" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A216" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A217" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A218" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A219" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A220" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A221" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A222" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A223" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A224" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A225" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A226" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A227" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A228" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A229" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A230" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A231" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A232" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A233" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A234" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A235" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A236" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A237" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A238" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A239" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A240" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A241" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A242" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A243" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A244" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A245" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A246" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A247" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A248" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A249" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A250" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A251" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A252" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A253" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A254" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A255" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A256" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A257" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A258" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A259" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A260" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A261" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A262" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A263" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A264" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A265" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A266" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A267" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A268" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A269" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A270" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A271" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A272" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A273" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A274" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A275" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A276" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A277" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A278" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A279" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A280" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A281" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A282" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A283" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A284" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A285" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A286" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A287" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A288" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A289" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A290" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A291" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A292" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A293" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A294" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A295" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A296" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A297" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A298" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A299" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A300" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A301" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A302" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A303" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A304" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A305" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A306" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A307" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A308" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>